--- a/Método de corrección/medidasCorreccion_30_10.xlsx
+++ b/Método de corrección/medidasCorreccion_30_10.xlsx
@@ -61,9 +61,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -81,18 +78,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -122,12 +113,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M210"/>
+  <dimension ref="A1:M208"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="D212" sqref="D212"/>
+      <selection activeCell="B209" sqref="B209:M210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8965,106 +8955,6 @@
         <v>44.106579884074762</v>
       </c>
     </row>
-    <row r="209" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B209" s="2">
-        <f>AVERAGE(B2:B208)</f>
-        <v>0.99614573312738008</v>
-      </c>
-      <c r="C209" s="2">
-        <f t="shared" ref="C209:M209" si="0">AVERAGE(C2:C208)</f>
-        <v>0.55596779386471618</v>
-      </c>
-      <c r="D209" s="2">
-        <f t="shared" si="0"/>
-        <v>51.42566929790808</v>
-      </c>
-      <c r="E209" s="2">
-        <f t="shared" si="0"/>
-        <v>0.99468405756285416</v>
-      </c>
-      <c r="F209" s="2">
-        <f t="shared" si="0"/>
-        <v>5.5747928322724549</v>
-      </c>
-      <c r="G209" s="2">
-        <f t="shared" si="0"/>
-        <v>46.294215046081177</v>
-      </c>
-      <c r="H209" s="2">
-        <f t="shared" si="0"/>
-        <v>0.99638642582930281</v>
-      </c>
-      <c r="I209" s="2">
-        <f t="shared" si="0"/>
-        <v>0.5779269452093313</v>
-      </c>
-      <c r="J209" s="2">
-        <f t="shared" si="0"/>
-        <v>51.259924147233406</v>
-      </c>
-      <c r="K209" s="2">
-        <f t="shared" si="0"/>
-        <v>0.9964925799576958</v>
-      </c>
-      <c r="L209" s="2">
-        <f t="shared" si="0"/>
-        <v>0.48995522586034251</v>
-      </c>
-      <c r="M209" s="2">
-        <f t="shared" si="0"/>
-        <v>51.961783603247852</v>
-      </c>
-    </row>
-    <row r="210" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B210" s="2">
-        <f>_xlfn.STDEV.S(B2:B208)</f>
-        <v>1.5943511355601954E-3</v>
-      </c>
-      <c r="C210" s="2">
-        <f t="shared" ref="C210:M210" si="1">_xlfn.STDEV.S(C2:C208)</f>
-        <v>0.38568640712930247</v>
-      </c>
-      <c r="D210" s="2">
-        <f t="shared" si="1"/>
-        <v>2.5538541270067134</v>
-      </c>
-      <c r="E210" s="2">
-        <f t="shared" si="1"/>
-        <v>3.3640117384121644E-3</v>
-      </c>
-      <c r="F210" s="2">
-        <f t="shared" si="1"/>
-        <v>36.349304968180157</v>
-      </c>
-      <c r="G210" s="2">
-        <f t="shared" si="1"/>
-        <v>4.3944242540364131</v>
-      </c>
-      <c r="H210" s="2">
-        <f t="shared" si="1"/>
-        <v>1.5734034817996801E-3</v>
-      </c>
-      <c r="I210" s="2">
-        <f t="shared" si="1"/>
-        <v>0.40665093929300844</v>
-      </c>
-      <c r="J210" s="2">
-        <f t="shared" si="1"/>
-        <v>2.57400389967236</v>
-      </c>
-      <c r="K210" s="2">
-        <f t="shared" si="1"/>
-        <v>1.5034187510276969E-3</v>
-      </c>
-      <c r="L210" s="2">
-        <f t="shared" si="1"/>
-        <v>0.35769038559290461</v>
-      </c>
-      <c r="M210" s="2">
-        <f t="shared" si="1"/>
-        <v>2.4931984975009294</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
